--- a/du_lieu_btl.xlsx
+++ b/du_lieu_btl.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EC4F0820-B0CE-4087-B507-56263026A76A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="16860" windowHeight="4092" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VN-INDEX" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'VN-INDEX'!$A$1:$K$23</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="D1:L7"/>
+  <oleSize ref="A1:L12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,20 +31,20 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{7F78A2F0-6437-463A-AC54-DF51D444CB9E}" keepAlive="1" name="Query - Table 0" description="Connection to the 'Table 0' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - Table 0" description="Connection to the 'Table 0' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table 0;Extended Properties=&quot;&quot;" command="SELECT * FROM [Table 0]"/>
   </connection>
-  <connection id="2" xr16:uid="{CBBB882D-F9F0-49BD-85E6-F34D14463FF9}" keepAlive="1" name="Query - Table 0 (2)" description="Connection to the 'Table 0 (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" keepAlive="1" name="Query - Table 0 (2)" description="Connection to the 'Table 0 (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table 0 (2);Extended Properties=&quot;&quot;" command="SELECT * FROM [Table 0 (2)]"/>
   </connection>
-  <connection id="3" xr16:uid="{952FA017-1BFD-4636-8782-888D7007C97F}" keepAlive="1" name="Query - Table 0 (3)" description="Connection to the 'Table 0 (3)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" keepAlive="1" name="Query - Table 0 (3)" description="Connection to the 'Table 0 (3)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table 0 (3);Extended Properties=&quot;&quot;" command="SELECT * FROM [Table 0 (3)]"/>
   </connection>
-  <connection id="4" xr16:uid="{C3E35DD0-6A95-465A-A318-C1D242B7C23B}" keepAlive="1" name="Query - Table 0 (4)" description="Connection to the 'Table 0 (4)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" keepAlive="1" name="Query - Table 0 (4)" description="Connection to the 'Table 0 (4)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table 0 (4);Extended Properties=&quot;&quot;" command="SELECT * FROM [Table 0 (4)]"/>
   </connection>
-  <connection id="5" xr16:uid="{D209DA8F-8B31-44F6-9DAC-BBECA8E35E87}" keepAlive="1" name="Query - Table 0 (5)" description="Connection to the 'Table 0 (5)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" keepAlive="1" name="Query - Table 0 (5)" description="Connection to the 'Table 0 (5)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table 0 (5);Extended Properties=&quot;&quot;" command="SELECT * FROM [Table 0 (5)]"/>
   </connection>
 </connections>
@@ -2599,7 +2598,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2810,7 +2809,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{F06EE9E9-66A3-4D4E-9C6D-B16A6CE01974}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -2830,7 +2829,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{999FD42D-7C17-4F3B-A239-2916D491F634}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -2849,7 +2848,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="3" xr16:uid="{160EBF6A-1EF1-4EE2-A5E1-F034537B72A7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -2869,7 +2868,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="4" xr16:uid="{33CFB7D4-6B80-46DE-94B9-33F19BE66F11}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -2888,7 +2887,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="5" xr16:uid="{29D50E2E-89D2-44BB-ABB9-67D41513E0AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -2908,98 +2907,98 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D7D0AF0-5C11-4F15-973D-CD00DDF7F9BE}" name="Table_0" displayName="Table_0" ref="A1:K23" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K23" xr:uid="{030F6A37-D8FD-4FC7-B78F-0A2869DC7AC4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_0" displayName="Table_0" ref="A1:K23" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K23"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CC5ECB64-89D5-4C09-996D-95559556B657}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{E3A81808-6A00-4B4B-BA60-F342840EF477}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{DCF17350-C60B-45F4-A87C-C21386868226}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{8A3DBFF8-40B8-4A57-8451-FECFD1A8F853}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{4A67B1A8-F2C8-40EF-871F-08362C89C295}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{DE2B79D2-6F16-407A-9D1F-74F1746EB482}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{722275C0-01D8-4DD8-A8D4-E2206F95E692}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{029D6D5D-91ED-4B92-B54B-F44DF71E6B77}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{C5DEB61F-13C4-4628-AE4C-1B5F289049E5}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{BFCE2A20-FB96-4BD8-9BF1-3C459AF0B97A}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{E3BE4885-EA9C-441E-BBAD-ED1CEE0632AD}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="42"/>
+    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="52"/>
+    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="51"/>
+    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="50"/>
+    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="49"/>
+    <tableColumn id="5" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="48"/>
+    <tableColumn id="6" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="47"/>
+    <tableColumn id="7" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="46"/>
+    <tableColumn id="8" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="45"/>
+    <tableColumn id="9" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="44"/>
+    <tableColumn id="10" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="43"/>
+    <tableColumn id="11" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A36F18C-DCF2-4FF2-B554-A7E3BD9473EB}" name="Table_0__2" displayName="Table_0__2" ref="A1:J23" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J23" xr:uid="{6907BAAF-E8A7-4BC2-87D9-27C50CCC8336}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_0__2" displayName="Table_0__2" ref="A1:J23" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J23"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CFBD4917-E20A-4DBE-9E5E-B5C1F9B97AC8}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{976D370B-3F63-4EFF-9F0C-DBDEAD375ED2}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{5EAB7D9D-61E5-4A42-9BD2-AFAD5F423AF0}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{D716CAF1-ED71-494C-88E7-1A2171529083}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{8B618EFF-37F1-4879-BF21-5414625FB80D}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{5F1FB324-21B7-44E0-B559-2B99BD96FA73}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{38A7C3A0-A387-4F97-A1AF-663DBC77AE26}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{15124AD6-6AF9-4267-9616-02F2086F9CA0}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{56EA5C5B-8B3C-4321-AA6E-12877008F4E7}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{0DC4776C-B168-4453-9371-543369A39616}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="32"/>
+    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="41"/>
+    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="40"/>
+    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="39"/>
+    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="38"/>
+    <tableColumn id="5" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="37"/>
+    <tableColumn id="6" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="36"/>
+    <tableColumn id="7" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="35"/>
+    <tableColumn id="8" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="34"/>
+    <tableColumn id="9" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="33"/>
+    <tableColumn id="10" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{85071E0E-10A3-46D5-9B6D-19A15679C343}" name="Table_0__3" displayName="Table_0__3" ref="A1:K23" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K23" xr:uid="{358A6584-9D69-4A10-BE75-A9BAD7B2B327}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_0__3" displayName="Table_0__3" ref="A1:K23" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K23"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{401E30E6-6808-4D4B-98A5-CE38E908A207}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{B34C4228-CB21-412F-AF7B-DD0BCF75CBF6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{083C9899-FE5A-4429-B2AD-1FCB71A16505}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{77A478C1-C10A-4F2C-AD57-A438ECBC3C89}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{24FDB0D0-C532-4285-8338-A053E92391A8}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{3AF622C5-828B-4712-BD40-3D8A26866A5D}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{85965DA1-DD71-439D-A64A-3448CAB26C32}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{D4A2AF8C-A4EE-4F5D-944D-7C7D3C476DA2}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{DE5D96CE-8114-45FF-A64C-BB1D32A10885}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{3C88B5A0-1980-4608-978D-436E6716A168}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{7C693BFF-CEED-48C5-88FB-71E087A65B34}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="21"/>
+    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="31"/>
+    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="30"/>
+    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="29"/>
+    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="28"/>
+    <tableColumn id="5" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="27"/>
+    <tableColumn id="6" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="26"/>
+    <tableColumn id="7" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="25"/>
+    <tableColumn id="8" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="24"/>
+    <tableColumn id="9" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="23"/>
+    <tableColumn id="10" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="22"/>
+    <tableColumn id="11" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{313274CF-35B0-4821-A412-C9B1351ED673}" name="Table_0__4" displayName="Table_0__4" ref="A1:J23" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J23" xr:uid="{304DE3FB-D170-4D9F-8640-53957FEEF9DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_0__4" displayName="Table_0__4" ref="A1:J23" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J23"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BFEDE302-9BD3-4F43-A1B2-438C50D39BD6}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{E5A6416D-A1A0-4C0E-B9DD-56F344552661}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{8D79E354-127D-446A-880D-4097673E71B7}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{3F463AEB-37F4-4318-9624-6FA5CD5A8A64}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{AF362C34-2958-4258-ABC8-227ED42F1580}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{B46DF487-6CEE-455F-BF19-DED3C4DB8B88}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{43EFF95E-94BD-438D-9534-B6DA6C0F1606}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{F655C725-66CE-4B37-ADA8-CEFDAE318A52}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{4139A4AF-7080-40BB-BFE8-143715B672D5}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{E307AE8D-154E-4DE4-9BA0-967650314A83}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="11"/>
+    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="18"/>
+    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="17"/>
+    <tableColumn id="5" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="16"/>
+    <tableColumn id="6" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="15"/>
+    <tableColumn id="7" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="14"/>
+    <tableColumn id="8" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="9" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="12"/>
+    <tableColumn id="10" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{60CFF246-5C00-4BA9-A043-C007EC4CB6DD}" name="Table_0__5" displayName="Table_0__5" ref="A1:K23" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K23" xr:uid="{1C357467-0FC7-4534-98AB-603EBF871002}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_0__5" displayName="Table_0__5" ref="A1:K23" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K23"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{1C7B3DD1-408B-499B-94E9-E282D4CE459B}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E00925D5-E9D5-41FD-AC90-3F6194DF258F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DE9D399A-2E76-463C-8AC1-6B5D0CD3259E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{9F4BF38F-6FF8-45D9-9402-1B92AE770F42}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{65B7220C-D16E-4355-93C7-1B29D72BE4CA}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{1F6F5035-4D04-4E7B-B48C-4D453030C79A}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F0C79914-9F7B-486E-B93C-7D94965E7625}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{F4070316-2AA1-4B2D-961B-B84E2B73FAEC}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{347E82CC-85DE-4C85-B1C5-7C2A31D55BC1}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{5772F574-C602-4AC3-82C4-7875D852FB9A}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{3A03D3D5-3472-4C49-911D-36AF35A58E1B}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="8" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="9" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="10" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="1"/>
+    <tableColumn id="11" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3048,7 +3047,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3083,7 +3082,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3260,1617 +3259,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD83A185-71CB-44DB-8C9B-2F58A83315CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6932C65B-A2C9-43FF-83E3-2EADC36E3A0D}">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1897673E-962A-4461-813C-B4C2AB24BD29}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4995,6 +3394,1606 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5702,7 +5701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CA75F2-B20D-43E7-9810-94F4B2A21E7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6465,11 +6464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFC7F2B-D0DC-49AF-AD80-FD55E097042B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/du_lieu_btl.xlsx
+++ b/du_lieu_btl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="16860" windowHeight="4092" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="16860" windowHeight="3852" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VN-INDEX" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'VN-INDEX'!$A$1:$K$23</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L12"/>
+  <oleSize ref="A1:L11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4105,7 +4105,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4869,7 +4869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -5704,7 +5704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6467,7 +6469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/du_lieu_btl.xlsx
+++ b/du_lieu_btl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="16860" windowHeight="3852" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="19512" windowHeight="5052" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VN-INDEX" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'VN-INDEX'!$A$1:$K$23</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L11"/>
+  <oleSize ref="A1:O16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4869,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="B20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5704,8 +5704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:E11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6469,8 +6469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
